--- a/docs/planets.xlsx
+++ b/docs/planets.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TA048699\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Git\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="5685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Kaihl</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>Newly Livable thanks to an man-made atmosphere</t>
+  </si>
+  <si>
+    <t>Io</t>
+  </si>
+  <si>
+    <t>Asgorath</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -493,20 +505,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="42.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -526,17 +538,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
       <c r="E2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -550,7 +580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -564,7 +594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -581,7 +611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -601,7 +631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -618,7 +648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -632,7 +662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -649,7 +679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -666,7 +696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -683,7 +713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -700,7 +730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -717,7 +747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -736,5 +766,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/planets.xlsx
+++ b/docs/planets.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="5685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,20 +505,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -538,7 +538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -552,7 +552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -566,7 +566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -580,7 +580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -594,7 +594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -611,7 +611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -648,7 +648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -662,7 +662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -679,7 +679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -696,7 +696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -713,7 +713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -730,12 +730,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -747,7 +747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>

--- a/docs/planets.xlsx
+++ b/docs/planets.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Git\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CE65944-5CCD-4DBF-A0FE-5F90241DB9CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="5688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Kaihl</t>
   </si>
@@ -137,9 +139,6 @@
     <t>One of 2 Planets with rings</t>
   </si>
   <si>
-    <t>Newly Livable thanks to an man-made atmosphere</t>
-  </si>
-  <si>
     <t>Io</t>
   </si>
   <si>
@@ -150,12 +149,45 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Orange/reddish Iron planet. Thick clouds of HCL acid cover the surface with a small, thin atmosphere of Carbon monoxide. Extremely hot surface</t>
+  </si>
+  <si>
+    <t>Hydrogen gas giant, Minty-green color. Has a research station in orbit with regular surface expeditions</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Black Volcanic Planet, somewhat-hot surface but able to be walked upon</t>
+  </si>
+  <si>
+    <t>Extremely Dangerous Ice planet, volatile composition, unsafe surface, no life</t>
+  </si>
+  <si>
+    <t>More solid ice planet, somewhat smaller than Zelios, Solid surface, extremely cold. No life</t>
+  </si>
+  <si>
+    <t>Giant rock, few interesting or peculiar rock formations, nothing special, no life</t>
+  </si>
+  <si>
+    <t>Water World, artificially-restored atmosphere, some human inhabitants on artificial islands and sky bases</t>
+  </si>
+  <si>
+    <t>Desert Planet, mostly carbon but some silicate sands. Extremely try, breathable atmosphere.</t>
+  </si>
+  <si>
+    <t>Hydrogen/cyanide Gas Giant, Orange-beige color. Uninhabited.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,9 +217,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,24 +536,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="42.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="66.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -537,36 +573,39 @@
       <c r="F1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -579,8 +618,11 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -593,8 +635,11 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -607,11 +652,11 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -630,8 +675,11 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -647,8 +695,11 @@
       <c r="F8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -661,8 +712,11 @@
       <c r="E9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -678,8 +732,11 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -695,8 +752,11 @@
       <c r="F11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -712,8 +772,11 @@
       <c r="F12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -729,8 +792,11 @@
       <c r="F13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -746,8 +812,11 @@
       <c r="F14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -763,6 +832,12 @@
       <c r="F15" t="s">
         <v>35</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
